--- a/PaperNeural/Results/ResultsMar2017-t-SNE_MI_1000_LR_400_PE_5.xlsx
+++ b/PaperNeural/Results/ResultsMar2017-t-SNE_MI_1000_LR_400_PE_5.xlsx
@@ -7111,13 +7111,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="40" t="n">
         <v>0.2</v>
       </c>
       <c r="E6" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
@@ -7144,7 +7144,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>2.3391812865497075</v>
+        <v>1.1695906432748537</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -7153,13 +7153,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="40" t="n">
         <v>0.25</v>
-      </c>
-      <c r="D7" s="40" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="E7" s="40" t="n">
-        <v>0.375</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -7174,10 +7174,10 @@
         <v>0.0</v>
       </c>
       <c r="K7" s="40" t="n">
-        <v>0.9861111111111112</v>
+        <v>1.0</v>
       </c>
       <c r="L7" s="40" t="n">
-        <v>0.013888888888888888</v>
+        <v>0.0</v>
       </c>
       <c r="M7" s="3" t="e">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -7194,10 +7194,10 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="40" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -7212,10 +7212,10 @@
         <v>0.0</v>
       </c>
       <c r="K8" s="40" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="L8" s="40" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -7291,20 +7291,20 @@
         <v>1</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="D12" s="40" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>26.31578947368421</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>1</v>
@@ -7335,10 +7335,10 @@
         <v>0.125</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -7369,13 +7369,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="40" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -7465,10 +7465,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="40" t="n">
         <v>0.4</v>
-      </c>
-      <c r="D18" s="40" t="n">
-        <v>0.6</v>
       </c>
       <c r="E18" s="40" t="n">
         <v>0.0</v>
@@ -7478,16 +7478,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>47.368421052631575</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J18" s="40" t="n">
-        <v>1.0</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="K18" s="40" t="n">
-        <v>0.0</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="L18" s="40" t="n">
         <v>0.0</v>
@@ -7506,10 +7506,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="D19" s="40" t="n">
-        <v>1.0</v>
+        <v>0.875</v>
       </c>
       <c r="E19" s="40" t="n">
         <v>0.0</v>
@@ -7546,10 +7546,10 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>1.0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -7563,10 +7563,10 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="40" t="n">
-        <v>0.018518518518518517</v>
+        <v>0.0</v>
       </c>
       <c r="L20" s="40" t="n">
-        <v>0.9814814814814815</v>
+        <v>1.0</v>
       </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -7639,20 +7639,20 @@
         <v>1</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D24" s="40" t="n">
         <v>0.0</v>
       </c>
       <c r="E24" s="40" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>31.57894736842105</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>1</v>
@@ -7671,7 +7671,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>3.508771929824561</v>
+        <v>2.923976608187134</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -7683,10 +7683,10 @@
         <v>0.0</v>
       </c>
       <c r="D25" s="40" t="n">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -7700,10 +7700,10 @@
         <v>0.0</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>1.0</v>
+        <v>0.9861111111111112</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.0</v>
+        <v>0.013888888888888888</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -7717,10 +7717,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="40" t="n">
         <v>0.5</v>
@@ -7734,13 +7734,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="40" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.0</v>
       </c>
       <c r="K26" s="40" t="n">
         <v>0.05555555555555555</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.9074074074074074</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -7905,10 +7905,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="40" t="n">
         <v>0.6</v>
-      </c>
-      <c r="D6" s="40" t="n">
-        <v>0.2</v>
       </c>
       <c r="E6" s="40" t="n">
         <v>0.2</v>
@@ -7918,17 +7918,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="63" t="n">
-        <v>36.84210526315789</v>
+        <v>47.368421052631575</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="40" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="K6" s="40" t="n">
-        <v>0.044444444444444446</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="L6" s="40" t="n">
         <v>0.044444444444444446</v>
@@ -7938,7 +7938,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>12.280701754385964</v>
+        <v>12.865497076023392</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -7947,13 +7947,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="40" t="n">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.0</v>
+        <v>0.375</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -7965,13 +7965,13 @@
         <v>2</v>
       </c>
       <c r="J7" s="40" t="n">
-        <v>0.027777777777777776</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K7" s="40" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="L7" s="40" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="M7" s="3" t="e">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -7988,10 +7988,10 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E8" s="40" t="n">
         <v>0.6666666666666666</v>
-      </c>
-      <c r="E8" s="40" t="n">
-        <v>0.3333333333333333</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -8003,13 +8003,13 @@
         <v>3</v>
       </c>
       <c r="J8" s="40" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="K8" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="L8" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -8082,20 +8082,20 @@
         <v>1</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D12" s="40" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>31.57894736842105</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
@@ -8114,7 +8114,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="63" t="n">
-        <v>5.847953216374268</v>
+        <v>7.017543859649122</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8123,13 +8123,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -8140,13 +8140,13 @@
         <v>2</v>
       </c>
       <c r="J13" s="40" t="n">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K13" s="40" t="n">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="L13" s="40" t="n">
         <v>0.027777777777777776</v>
-      </c>
-      <c r="K13" s="40" t="n">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L13" s="40" t="n">
-        <v>0.013888888888888888</v>
       </c>
       <c r="M13" s="3" t="e">
         <f>100*K13/(SUM(J13:L13))</f>
@@ -8160,10 +8160,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="40" t="n">
         <v>0.3333333333333333</v>
@@ -8177,10 +8177,10 @@
         <v>3</v>
       </c>
       <c r="J14" s="40" t="n">
-        <v>0.018518518518518517</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K14" s="40" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="L14" s="40" t="n">
         <v>0.9074074074074074</v>
@@ -8256,10 +8256,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D18" s="40" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E18" s="40" t="n">
         <v>0.0</v>
@@ -8269,26 +8269,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>42.10526315789473</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J18" s="40" t="n">
-        <v>0.5777777777777777</v>
+        <v>0.8</v>
       </c>
       <c r="K18" s="40" t="n">
-        <v>0.3111111111111111</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="L18" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="M18" s="3" t="e">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>26.900584795321635</v>
+        <v>12.280701754385964</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8297,13 +8297,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="40" t="n">
-        <v>0.375</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="40" t="n">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="E19" s="40" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="F19" s="3" t="e">
         <f>100*D19/SUM(C19:E19)</f>
@@ -8314,13 +8314,13 @@
         <v>2</v>
       </c>
       <c r="J19" s="40" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K19" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L19" s="40" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.027777777777777776</v>
       </c>
       <c r="M19" s="3" t="e">
         <f>100*K19/(SUM(J19:L19))</f>
@@ -8334,13 +8334,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -8351,13 +8351,13 @@
         <v>3</v>
       </c>
       <c r="J20" s="40" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K20" s="40" t="n">
-        <v>0.18518518518518517</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="L20" s="40" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -8430,29 +8430,29 @@
         <v>1</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D24" s="40" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>26.31578947368421</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="40" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="K24" s="40" t="n">
-        <v>0.17777777777777778</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L24" s="40" t="n">
         <v>0.022222222222222223</v>
@@ -8462,7 +8462,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>12.865497076023392</v>
+        <v>7.017543859649122</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8474,10 +8474,10 @@
         <v>0.0</v>
       </c>
       <c r="D25" s="40" t="n">
-        <v>1.0</v>
+        <v>0.625</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.0</v>
+        <v>0.375</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -8491,10 +8491,10 @@
         <v>0.0</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.041666666666666664</v>
+        <v>0.027777777777777776</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -8508,13 +8508,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D26" s="40" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="E26" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
@@ -8525,13 +8525,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="K26" s="40" t="n">
         <v>0.05555555555555555</v>
       </c>
-      <c r="K26" s="40" t="n">
-        <v>0.12962962962962962</v>
-      </c>
       <c r="L26" s="40" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -8696,10 +8696,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="D6" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="E6" s="40" t="n">
         <v>0.0</v>
@@ -8709,7 +8709,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="63" t="n">
-        <v>31.57894736842105</v>
+        <v>21.052631578947366</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
@@ -8729,7 +8729,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>2.3391812865497075</v>
+        <v>0.5847953216374269</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8738,10 +8738,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="40" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="40" t="n">
-        <v>0.625</v>
+        <v>0.875</v>
       </c>
       <c r="E7" s="40" t="n">
         <v>0.125</v>
@@ -8776,13 +8776,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D8" s="40" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="D8" s="40" t="n">
-        <v>0.0</v>
-      </c>
       <c r="E8" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -8797,10 +8797,10 @@
         <v>0.0</v>
       </c>
       <c r="K8" s="40" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="L8" s="40" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -8873,13 +8873,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D12" s="40" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
@@ -8905,7 +8905,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="63" t="n">
-        <v>0.5847953216374269</v>
+        <v>1.1695906432748537</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8914,13 +8914,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.375</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -8951,13 +8951,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E14" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -8968,13 +8968,13 @@
         <v>3</v>
       </c>
       <c r="J14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="K14" s="40" t="n">
         <v>0.018518518518518517</v>
       </c>
       <c r="L14" s="40" t="n">
-        <v>0.9814814814814815</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -9047,20 +9047,20 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D18" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="E18" s="40" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>36.84210526315789</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
@@ -9079,7 +9079,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>1.7543859649122806</v>
+        <v>2.3391812865497075</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9088,13 +9088,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="D19" s="40" t="n">
         <v>0.875</v>
       </c>
       <c r="E19" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="3" t="e">
         <f>100*D19/SUM(C19:E19)</f>
@@ -9105,10 +9105,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="40" t="n">
-        <v>0.027777777777777776</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K19" s="40" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L19" s="40" t="n">
         <v>0.0</v>
@@ -9128,10 +9128,10 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -9221,20 +9221,20 @@
         <v>1</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D24" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="40" t="n">
         <v>0.2</v>
-      </c>
-      <c r="E24" s="40" t="n">
-        <v>0.4</v>
       </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>47.368421052631575</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
@@ -9253,7 +9253,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>3.508771929824561</v>
+        <v>4.093567251461988</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9302,10 +9302,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D26" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="40" t="n">
         <v>0.5</v>
-      </c>
-      <c r="E26" s="40" t="n">
-        <v>0.3333333333333333</v>
       </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
@@ -9319,10 +9319,10 @@
         <v>0.037037037037037035</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.9074074074074074</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -9487,20 +9487,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D6" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="40" t="n">
         <v>0.4</v>
-      </c>
-      <c r="E6" s="40" t="n">
-        <v>0.0</v>
       </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="63" t="n">
-        <v>47.368421052631575</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
@@ -9529,13 +9529,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E7" s="40" t="n">
         <v>0.125</v>
-      </c>
-      <c r="D7" s="40" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="E7" s="40" t="n">
-        <v>0.5</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -9570,10 +9570,10 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -9664,20 +9664,20 @@
         <v>1</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D12" s="40" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
@@ -9708,10 +9708,10 @@
         <v>0.0</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -9742,13 +9742,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E14" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -9838,29 +9838,29 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D18" s="40" t="n">
         <v>0.2</v>
       </c>
       <c r="E18" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>31.57894736842105</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J18" s="40" t="n">
-        <v>1.0</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="K18" s="40" t="n">
-        <v>0.0</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="L18" s="40" t="n">
         <v>0.0</v>
@@ -9870,7 +9870,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>1.1695906432748537</v>
+        <v>0.5847953216374269</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9879,10 +9879,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="40" t="n">
-        <v>0.875</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="40" t="n">
         <v>0.0</v>
@@ -9896,10 +9896,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="40" t="n">
-        <v>0.013888888888888888</v>
+        <v>0.0</v>
       </c>
       <c r="K19" s="40" t="n">
-        <v>0.9861111111111112</v>
+        <v>1.0</v>
       </c>
       <c r="L19" s="40" t="n">
         <v>0.0</v>
@@ -9919,10 +9919,10 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -9936,10 +9936,10 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="40" t="n">
-        <v>0.018518518518518517</v>
+        <v>0.0</v>
       </c>
       <c r="L20" s="40" t="n">
-        <v>0.9814814814814815</v>
+        <v>1.0</v>
       </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -10012,10 +10012,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D24" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="40" t="n">
         <v>0.2</v>
@@ -10025,26 +10025,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>26.31578947368421</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="40" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="K24" s="40" t="n">
-        <v>0.0</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.022222222222222223</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>4.093567251461988</v>
+        <v>4.678362573099415</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10056,10 +10056,10 @@
         <v>0.0</v>
       </c>
       <c r="D25" s="40" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -10070,13 +10070,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="40" t="n">
-        <v>0.027777777777777776</v>
+        <v>0.0</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>0.9583333333333334</v>
+        <v>1.0</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.013888888888888888</v>
+        <v>0.0</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -10093,10 +10093,10 @@
         <v>0.0</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E26" s="40" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
@@ -10110,10 +10110,10 @@
         <v>0.018518518518518517</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9074074074074074</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -10274,20 +10274,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>1.0</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="40" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="63" t="n">
-        <v>15.789473684210526</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="41" t="s">
@@ -10319,10 +10319,10 @@
         <v>0.0</v>
       </c>
       <c r="D7" s="40" t="n">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -10354,13 +10354,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="40" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -10451,10 +10451,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>1.0</v>
+        <v>0.6</v>
       </c>
       <c r="D12" s="40" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="40" t="n">
         <v>0.0</v>
@@ -10464,7 +10464,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>5.263157894736842</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="I12" s="41" t="s">
         <v>1</v>
@@ -10492,13 +10492,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -10529,13 +10529,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E14" s="40" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -10625,20 +10625,20 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D18" s="40" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E18" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>47.368421052631575</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
@@ -10706,10 +10706,10 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="40" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E20" s="40" t="n">
         <v>0.16666666666666666</v>
-      </c>
-      <c r="E20" s="40" t="n">
-        <v>0.8333333333333334</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -10812,26 +10812,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>31.57894736842105</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="40" t="n">
-        <v>1.0</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="K24" s="40" t="n">
         <v>0.0</v>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.0</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>1.7543859649122806</v>
+        <v>4.093567251461988</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10880,10 +10880,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E26" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
@@ -10894,13 +10894,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="40" t="n">
-        <v>0.0</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9074074074074074</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -11065,20 +11065,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="40" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E6" s="40" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="63" t="n">
-        <v>42.10526315789473</v>
+        <v>47.368421052631575</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="41" t="s">
@@ -11098,7 +11098,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>1.7543859649122806</v>
+        <v>1.1695906432748537</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -11110,10 +11110,10 @@
         <v>0.125</v>
       </c>
       <c r="D7" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="40" t="n">
         <v>0.375</v>
-      </c>
-      <c r="E7" s="40" t="n">
-        <v>0.5</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -11145,10 +11145,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="40" t="n">
         <v>0.16666666666666666</v>
-      </c>
-      <c r="D8" s="40" t="n">
-        <v>0.0</v>
       </c>
       <c r="E8" s="40" t="n">
         <v>0.8333333333333334</v>
@@ -11166,10 +11166,10 @@
         <v>0.0</v>
       </c>
       <c r="K8" s="40" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="L8" s="40" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -11242,20 +11242,20 @@
         <v>1</v>
       </c>
       <c r="C12" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="40" t="n">
         <v>0.6</v>
-      </c>
-      <c r="D12" s="40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="40" t="n">
-        <v>0.4</v>
       </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>26.31578947368421</v>
+        <v>47.368421052631575</v>
       </c>
       <c r="I12" s="41" t="s">
         <v>1</v>
@@ -11283,13 +11283,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="D13" s="40" t="n">
         <v>0.625</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -11320,13 +11320,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E14" s="40" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -11416,13 +11416,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D18" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="40" t="n">
         <v>0.2</v>
-      </c>
-      <c r="E18" s="40" t="n">
-        <v>0.0</v>
       </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
@@ -11448,7 +11448,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>0.0</v>
+        <v>1.1695906432748537</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -11474,10 +11474,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="40" t="n">
-        <v>0.0</v>
+        <v>0.027777777777777776</v>
       </c>
       <c r="K19" s="40" t="n">
-        <v>1.0</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="L19" s="40" t="n">
         <v>0.0</v>
@@ -11497,10 +11497,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -11590,10 +11590,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="40" t="n">
         <v>0.8</v>
-      </c>
-      <c r="D24" s="40" t="n">
-        <v>0.2</v>
       </c>
       <c r="E24" s="40" t="n">
         <v>0.0</v>
@@ -11603,7 +11603,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>26.31578947368421</v>
+        <v>47.368421052631575</v>
       </c>
       <c r="I24" s="41" t="s">
         <v>1</v>
@@ -11622,7 +11622,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>4.678362573099415</v>
+        <v>3.508771929824561</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -11631,13 +11631,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="40" t="n">
         <v>0.625</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -11668,13 +11668,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E26" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
@@ -11685,13 +11685,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="40" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -11863,13 +11863,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="40" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
@@ -11896,7 +11896,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>1.1695906432748537</v>
+        <v>0.5847953216374269</v>
       </c>
       <c r="O6" s="45"/>
     </row>
@@ -11948,10 +11948,10 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -11966,10 +11966,10 @@
         <v>0.0</v>
       </c>
       <c r="K8" s="40" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="L8" s="40" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -12042,10 +12042,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D12" s="40" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="40" t="n">
         <v>0.2</v>
@@ -12055,7 +12055,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>15.789473684210526</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="I12" s="41" t="s">
         <v>1</v>
@@ -12083,13 +12083,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="40" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E13" s="40" t="n">
         <v>0.125</v>
-      </c>
-      <c r="D13" s="40" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="E13" s="40" t="n">
-        <v>0.0</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -12120,13 +12120,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E14" s="40" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -12216,13 +12216,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D18" s="40" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="E18" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
@@ -12235,10 +12235,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="40" t="n">
-        <v>0.9555555555555556</v>
+        <v>1.0</v>
       </c>
       <c r="K18" s="40" t="n">
-        <v>0.044444444444444446</v>
+        <v>0.0</v>
       </c>
       <c r="L18" s="40" t="n">
         <v>0.0</v>
@@ -12248,7 +12248,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>1.1695906432748537</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
@@ -12257,10 +12257,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="40" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="E19" s="40" t="n">
         <v>0.125</v>
@@ -12297,10 +12297,10 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -12393,36 +12393,36 @@
         <v>0.8</v>
       </c>
       <c r="D24" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="I24" s="41" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="40" t="n">
-        <v>1.0</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="K24" s="40" t="n">
         <v>0.0</v>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.0</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>1.7543859649122806</v>
+        <v>2.3391812865497075</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
@@ -12451,10 +12451,10 @@
         <v>0.0</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>1.0</v>
+        <v>0.9861111111111112</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.0</v>
+        <v>0.013888888888888888</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -12471,10 +12471,10 @@
         <v>0.0</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E26" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
@@ -12485,13 +12485,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="40" t="n">
-        <v>0.018518518518518517</v>
+        <v>0.0</v>
       </c>
       <c r="K26" s="40" t="n">
         <v>0.037037037037037035</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
